--- a/normativa/Anexos/L05T02C03/L05T02C03A15.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A15.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MisDocumentos\__ModificacionDeNormativa\__L05T02C03EnvioDeInformación\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="48" windowWidth="10920" windowHeight="10680" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="10920" windowHeight="10680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Form. TC-1 (REDUCIDA)" sheetId="6" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Form. TC. 2 (DETALLE)'!$A$1:$O$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Form. TC-1 (REDUCIDA)'!$A$1:$O$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="50">
   <si>
     <t>Empresarial</t>
   </si>
@@ -180,35 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve"> LOS FIRMANTES DECLARAMOS QUE LA INFORMACION CONTENIDA EN EL PRESENTE ANEXO  HA SIDO VERIFICADA EN CUANTO A SU EXACTITUD E INTEGRIDAD.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Instrucciones</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:
-* La medida debe estar expresada en días hábiles
-* En las etapas de Análisis, Aprobación y Desembolso incluir solamente el tiempo que depende de la entidad sin factores externos.
-* En caso de no contar con un determinado tipo de crédito llenar con N/A
-* Producto 1….n: Reemplazar por nombre de producto
-* Todos los espacios marcados con "*" deben ser completados
-* No insertar filas, las columnas pueden ser insertadas o eliminadas de acuerdo al número de sus productos
-* Los trámites de registro hacen referencia a las actividades de registro de inmuebles en Derechos Reales 
-* Otros Considera: Aprobación de planos, Nacionalización de Vehículos, avaluos, Seguros, Reconocimiento de firmas, etc.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -263,9 +239,6 @@
     <t>LIBRO 5°, TÍTULO II, CAPÍTULO III</t>
   </si>
   <si>
-    <t>Anexo 15:  Formulario TC-1 Reporte de Tiempos máximos de atención de créditos</t>
-  </si>
-  <si>
     <t>Anticrético</t>
   </si>
   <si>
@@ -275,14 +248,49 @@
     <t>Vivienda de Interés Social sin garantía hipotecaria</t>
   </si>
   <si>
-    <t>Anexo 15: Formulario TC-2 Reporte de Tiempos máximos de atención de créditos</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Instrucciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+* La medida debe estar expresada en días hábiles
+* En las etapas de Análisis, Aprobación y Desembolso incluir solamente el tiempo que depende de la entidad sin factores externos.
+* En caso de no contar con un determinado tipo de crédito llenar con N/A
+* Producto 1….n: Reemplazar por nombre de producto
+* Todos los espacios marcados con "*" deben ser completados
+* No insertar filas, las columnas pueden ser insertadas o eliminadas de acuerdo al número de sus productos
+* Los trámites de registro hacen referencia a las actividades de registro de inmuebles en Derechos Reales 
+* Otros Considera: Aprobación de planos, Nacionalización de Vehículos, avaluos, Seguros, Reconocimiento de firmas, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Anexo 15:  Formulario TC-1 Reporte de Tiempos Máximos de Atención de Créditos</t>
+  </si>
+  <si>
+    <t>Anexo 15: Formulario TC-2 Reporte de Tiempos Máximos de Atención de Créditos</t>
+  </si>
+  <si>
+    <t>ENTIDAD:________________________________________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +411,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -684,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,6 +831,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,19 +897,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,9 +922,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,9 +933,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1088,50 +1132,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>51912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16197</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190508</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4385787"/>
-          <a:ext cx="4365947" cy="1043471"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1178,7 +1178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1213,7 +1213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1424,39 +1424,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="11" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="21" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="12" style="21" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.33203125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="21" customWidth="1"/>
-    <col min="18" max="256" width="9.109375" style="21" customWidth="1"/>
-    <col min="257" max="16384" width="11.44140625" style="21"/>
+    <col min="5" max="5" width="12.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="12" style="21" customWidth="1"/>
+    <col min="13" max="15" width="13.28515625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="21" customWidth="1"/>
+    <col min="18" max="256" width="9.140625" style="21" customWidth="1"/>
+    <col min="257" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1500,7 +1500,7 @@
     <row r="4" spans="1:36" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1509,35 +1509,35 @@
       </c>
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:36" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="51" t="s">
+      <c r="B9" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="51" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="51" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:36" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
@@ -1843,34 +1843,34 @@
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1893,19 +1893,19 @@
         <v>20</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>18</v>
@@ -1914,10 +1914,10 @@
         <v>20</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>32</v>
       </c>
@@ -1946,11 +1946,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" ref="H21:O21" si="3">SUM(H22:H24)</f>
         <v>0</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I21:O21" si="3">SUM(I22:I24)</f>
         <v>0</v>
       </c>
       <c r="J21" s="12">
@@ -1961,7 +1960,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2011,7 @@
       <c r="K22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="12" t="s">
         <v>37</v>
       </c>
       <c r="M22" s="12" t="s">
@@ -2025,7 +2024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>7</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="K23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>37</v>
       </c>
       <c r="M23" s="15" t="s">
@@ -2106,7 +2105,7 @@
       <c r="K24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="18" t="s">
         <v>37</v>
       </c>
       <c r="M24" s="18" t="s">
@@ -2119,7 +2118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
@@ -2148,11 +2147,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" ref="H25:O25" si="5">SUM(H26:H27)</f>
         <v>0</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I25:O25" si="5">SUM(I26:I27)</f>
         <v>0</v>
       </c>
       <c r="J25" s="12">
@@ -2163,7 +2161,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
@@ -2214,7 +2212,7 @@
       <c r="K26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>37</v>
       </c>
       <c r="M26" s="15" t="s">
@@ -2227,7 +2225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>10</v>
       </c>
@@ -2261,7 +2259,7 @@
       <c r="K27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="18" t="s">
         <v>37</v>
       </c>
       <c r="M27" s="18" t="s">
@@ -2274,27 +2272,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
     </row>
     <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -2304,6 +2303,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
@@ -2316,8 +2316,9 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>33</v>
       </c>
@@ -2330,21 +2331,22 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="25"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
@@ -2352,7 +2354,7 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -2363,40 +2365,42 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="K34" s="24"/>
+      <c r="L34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="26"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
-      <c r="K35" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="27"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="M35" s="27"/>
     </row>
-    <row r="36" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="26"/>
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
@@ -2406,9 +2410,10 @@
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31"/>
@@ -2418,11 +2423,12 @@
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="33"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -2433,8 +2439,9 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
-    </row>
-    <row r="42" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="34"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -2442,59 +2449,63 @@
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" spans="1:17" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="59"/>
+      <c r="A43" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A43:K43"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A35:G36"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;9
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Cursiva"&amp;9Autoridad de Supervisión del Sistema Financiero</oddHeader>
-    <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;10Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (última)&amp;R&amp;"Times New Roman,Normal"&amp;10Libro 5°
 Título II
 Capítulo III
-A15- TC-1 * &amp;P/&amp;N</oddFooter>
+Anexo A15- TC-1
+Página &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2505,51 +2516,52 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" style="21" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="16.6640625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="21" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" style="21" customWidth="1"/>
-    <col min="21" max="21" width="20" style="21" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="21" customWidth="1"/>
-    <col min="23" max="23" width="13.5546875" style="21" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="21" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" style="21" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" style="21" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" style="21" customWidth="1"/>
-    <col min="30" max="256" width="9.109375" style="21" customWidth="1"/>
-    <col min="257" max="16384" width="11.44140625" style="21"/>
+    <col min="1" max="1" width="65.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="21" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="21" customWidth="1"/>
+    <col min="20" max="20" width="20" style="21" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="21" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="21" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="21" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="21" customWidth="1"/>
+    <col min="29" max="255" width="9.140625" style="21" customWidth="1"/>
+    <col min="256" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -2583,46 +2595,45 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67" t="s">
+      <c r="B7" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="67" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="67" t="s">
+      <c r="G7" s="73"/>
+      <c r="H7" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-    </row>
-    <row r="8" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="73"/>
+    </row>
+    <row r="8" spans="1:31" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>31</v>
       </c>
@@ -2657,7 +2668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="40" t="s">
         <v>5</v>
@@ -2690,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>6</v>
       </c>
@@ -2770,7 +2781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>7</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>8</v>
       </c>
@@ -2840,7 +2851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>13</v>
       </c>
@@ -2885,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>9</v>
       </c>
@@ -2920,7 +2931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>10</v>
       </c>
@@ -2955,95 +2966,95 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="45"/>
       <c r="V17" s="45"/>
       <c r="W17" s="45"/>
       <c r="X17" s="45"/>
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
-    </row>
-    <row r="19" spans="1:28" ht="78" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="G18" s="74"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="74"/>
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" spans="1:27" s="54" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="J19" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="K19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="L19" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="50" t="s">
+      <c r="M19" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O19" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="36" t="s">
         <v>5</v>
@@ -3063,7 +3074,7 @@
       <c r="G20" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="41" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="36" t="s">
@@ -3072,7 +3083,7 @@
       <c r="J20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="36" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="41" t="s">
@@ -3088,12 +3099,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="43">
-        <f t="shared" ref="B21:O21" si="2">SUM(B22:B24)</f>
+        <f t="shared" ref="B21:G21" si="2">SUM(B22:B24)</f>
         <v>0</v>
       </c>
       <c r="C21" s="43">
@@ -3117,39 +3128,39 @@
         <v>0</v>
       </c>
       <c r="H21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H21" si="3">SUM(H22:H24)</f>
         <v>0</v>
       </c>
       <c r="I21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I21:O21" si="4">SUM(I22:I24)</f>
         <v>0</v>
       </c>
       <c r="J21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>7</v>
       </c>
@@ -3243,7 +3254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>8</v>
       </c>
@@ -3290,7 +3301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>13</v>
       </c>
@@ -3299,43 +3310,43 @@
         <v>0</v>
       </c>
       <c r="C25" s="43">
-        <f t="shared" ref="C25:J25" si="3">SUM(D26:D27)</f>
+        <f t="shared" ref="C25:F25" si="5">SUM(D26:D27)</f>
         <v>0</v>
       </c>
       <c r="D25" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E25" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F25" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G25" s="43">
-        <f t="shared" si="3"/>
+        <f>SUM(I26:I27)</f>
         <v>0</v>
       </c>
       <c r="H25" s="43">
-        <f t="shared" si="3"/>
+        <f>SUM(J26:J27)</f>
         <v>0</v>
       </c>
       <c r="I25" s="43">
-        <f t="shared" si="3"/>
+        <f>SUM(J26:J27)</f>
         <v>0</v>
       </c>
       <c r="J25" s="43">
-        <f t="shared" si="3"/>
+        <f>SUM(K26:K27)</f>
         <v>0</v>
       </c>
       <c r="K25" s="43">
-        <f>SUM(J26:J27)</f>
+        <f>SUM(L26:L27)</f>
         <v>0</v>
       </c>
       <c r="L25" s="43">
-        <f>SUM(M26:M27)</f>
+        <f>SUM(K26:K27)</f>
         <v>0</v>
       </c>
       <c r="M25" s="43">
@@ -3343,15 +3354,15 @@
         <v>0</v>
       </c>
       <c r="N25" s="43">
+        <f>SUM(N26:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="43">
         <f>SUM(P26:P27)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="43">
-        <f>SUM(Q26:Q27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>9</v>
       </c>
@@ -3398,7 +3409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>10</v>
       </c>
@@ -3445,26 +3456,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
+      <c r="U28" s="45"/>
       <c r="V28" s="45"/>
       <c r="W28" s="45"/>
       <c r="X28" s="45"/>
       <c r="Y28" s="45"/>
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>33</v>
       </c>
@@ -3478,25 +3489,24 @@
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -3513,9 +3523,8 @@
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
       <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -3526,7 +3535,7 @@
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3538,21 +3547,21 @@
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
     </row>
-    <row r="38" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
+    <row r="38" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="81"/>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -3564,21 +3573,21 @@
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
     </row>
-    <row r="40" spans="1:17" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="72"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="78"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -3590,7 +3599,7 @@
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
     </row>
-    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -3602,56 +3611,58 @@
       <c r="I42" s="34"/>
       <c r="J42" s="34"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-    </row>
-    <row r="45" spans="1:17" ht="131.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+    </row>
+    <row r="45" spans="1:16" ht="131.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="48"/>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="M18:O18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="I18:L18"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="1.1417322834645669" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="38" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Cursiva"&amp;9Autoridad de Supervisión del Sistema Financiero</oddHeader>
-    <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;10Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/536/2018 (última)&amp;R&amp;"Times New Roman,Normal"&amp;10Libro 5°
 Título II
 Capítulo III
-A15- TC-2 * &amp;P/&amp;[Page</oddFooter>
+Anexo A15- TC-2
+Página &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="40" man="1"/>
+    <brk id="15" max="40" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
